--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1160.183100724128</v>
+        <v>1243.413723014754</v>
       </c>
       <c r="AB2" t="n">
-        <v>1587.413702076795</v>
+        <v>1701.293511370737</v>
       </c>
       <c r="AC2" t="n">
-        <v>1435.913166299708</v>
+        <v>1538.924446425953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1160183.100724128</v>
+        <v>1243413.723014754</v>
       </c>
       <c r="AE2" t="n">
-        <v>1587413.702076795</v>
+        <v>1701293.511370737</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.255866518000033e-06</v>
+        <v>2.123104660004746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1435913.166299708</v>
+        <v>1538924.446425953</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>567.1362288200168</v>
+        <v>619.1233984969002</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.9808085561203</v>
+        <v>847.1119476200905</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.9222892834283</v>
+        <v>766.2647722683139</v>
       </c>
       <c r="AD3" t="n">
-        <v>567136.2288200167</v>
+        <v>619123.3984969002</v>
       </c>
       <c r="AE3" t="n">
-        <v>775980.8085561204</v>
+        <v>847111.9476200906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.968062622327165e-06</v>
+        <v>3.327107510834885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>701922.2892834283</v>
+        <v>766264.7722683139</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.2950061479629</v>
+        <v>508.9530324748372</v>
       </c>
       <c r="AB4" t="n">
-        <v>639.373643012339</v>
+        <v>696.371992455183</v>
       </c>
       <c r="AC4" t="n">
-        <v>578.3527198897845</v>
+        <v>629.9112268594895</v>
       </c>
       <c r="AD4" t="n">
-        <v>467295.0061479629</v>
+        <v>508953.0324748373</v>
       </c>
       <c r="AE4" t="n">
-        <v>639373.643012339</v>
+        <v>696371.9924551829</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234996112399434e-06</v>
+        <v>3.778371820027775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.066840277777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>578352.7198897845</v>
+        <v>629911.2268594895</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.8392408894252</v>
+        <v>458.5825185623202</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.3378390343441</v>
+        <v>627.4528331298375</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.9055961510902</v>
+        <v>567.5696153715073</v>
       </c>
       <c r="AD5" t="n">
-        <v>416839.2408894252</v>
+        <v>458582.5185623202</v>
       </c>
       <c r="AE5" t="n">
-        <v>570337.8390343442</v>
+        <v>627452.8331298375</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380553758787216e-06</v>
+        <v>4.024444243263772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.511284722222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>515905.5961510902</v>
+        <v>567569.6153715074</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.0039002417884</v>
+        <v>435.5765857140911</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.0935185361186</v>
+        <v>595.9751008567649</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.643189749536</v>
+        <v>539.096073687302</v>
       </c>
       <c r="AD6" t="n">
-        <v>394003.9002417884</v>
+        <v>435576.5857140911</v>
       </c>
       <c r="AE6" t="n">
-        <v>539093.5185361186</v>
+        <v>595975.1008567649</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467664268139236e-06</v>
+        <v>4.171708881415912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>487643.189749536</v>
+        <v>539096.0736873021</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>377.2948690416317</v>
+        <v>418.8675545139344</v>
       </c>
       <c r="AB7" t="n">
-        <v>516.2314848976332</v>
+        <v>573.1130672182794</v>
       </c>
       <c r="AC7" t="n">
-        <v>466.9630765144418</v>
+        <v>518.415960452208</v>
       </c>
       <c r="AD7" t="n">
-        <v>377294.8690416317</v>
+        <v>418867.5545139344</v>
       </c>
       <c r="AE7" t="n">
-        <v>516231.4848976332</v>
+        <v>573113.0672182795</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.528538922048687e-06</v>
+        <v>4.274620504218908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>466963.0765144418</v>
+        <v>518415.9604522079</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.1199811701728</v>
+        <v>393.777917988496</v>
       </c>
       <c r="AB8" t="n">
-        <v>481.7860926742351</v>
+        <v>538.7843196475307</v>
       </c>
       <c r="AC8" t="n">
-        <v>435.8051041804333</v>
+        <v>487.3635003689116</v>
       </c>
       <c r="AD8" t="n">
-        <v>352119.9811701728</v>
+        <v>393777.917988496</v>
       </c>
       <c r="AE8" t="n">
-        <v>481786.0926742351</v>
+        <v>538784.3196475307</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578863214160948e-06</v>
+        <v>4.359696216934881e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.855902777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>435805.1041804333</v>
+        <v>487363.5003689115</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>346.8761801350391</v>
+        <v>388.5341169533625</v>
       </c>
       <c r="AB9" t="n">
-        <v>474.6112927577907</v>
+        <v>531.6095197310864</v>
       </c>
       <c r="AC9" t="n">
-        <v>429.3150570981194</v>
+        <v>480.8734532865977</v>
       </c>
       <c r="AD9" t="n">
-        <v>346876.1801350391</v>
+        <v>388534.1169533625</v>
       </c>
       <c r="AE9" t="n">
-        <v>474611.2927577908</v>
+        <v>531609.5197310863</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.586519228916431e-06</v>
+        <v>4.372639089741393e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.834201388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>429315.0570981194</v>
+        <v>480873.4532865977</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>330.841277426101</v>
+        <v>372.4992142444244</v>
       </c>
       <c r="AB10" t="n">
-        <v>452.6716314614407</v>
+        <v>509.6698584347364</v>
       </c>
       <c r="AC10" t="n">
-        <v>409.469286283385</v>
+        <v>461.0276824718633</v>
       </c>
       <c r="AD10" t="n">
-        <v>330841.277426101</v>
+        <v>372499.2142444244</v>
       </c>
       <c r="AE10" t="n">
-        <v>452671.6314614406</v>
+        <v>509669.8584347364</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.636750154995088e-06</v>
+        <v>4.457556962545092e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.684461805555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>409469.286283385</v>
+        <v>461027.6824718633</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>322.5266266800867</v>
+        <v>364.1845634984101</v>
       </c>
       <c r="AB11" t="n">
-        <v>441.2951594942416</v>
+        <v>498.2933864675373</v>
       </c>
       <c r="AC11" t="n">
-        <v>399.1785688337567</v>
+        <v>450.736965022235</v>
       </c>
       <c r="AD11" t="n">
-        <v>322526.6266800867</v>
+        <v>364184.56349841</v>
       </c>
       <c r="AE11" t="n">
-        <v>441295.1594942416</v>
+        <v>498293.3864675373</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652342282606865e-06</v>
+        <v>4.483916227894939e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>399178.5688337567</v>
+        <v>450736.965022235</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>320.9720250010417</v>
+        <v>362.629961819365</v>
       </c>
       <c r="AB12" t="n">
-        <v>439.1680848927865</v>
+        <v>496.1663118660821</v>
       </c>
       <c r="AC12" t="n">
-        <v>397.2544992468965</v>
+        <v>448.8128954353748</v>
       </c>
       <c r="AD12" t="n">
-        <v>320972.0250010417</v>
+        <v>362629.961819365</v>
       </c>
       <c r="AE12" t="n">
-        <v>439168.0848927865</v>
+        <v>496166.3118660821</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.659064637026313e-06</v>
+        <v>4.495280701578704e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.619357638888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>397254.4992468965</v>
+        <v>448812.8954353748</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>322.1733190785434</v>
+        <v>363.8312558968668</v>
       </c>
       <c r="AB13" t="n">
-        <v>440.8117484469789</v>
+        <v>497.8099754202744</v>
       </c>
       <c r="AC13" t="n">
-        <v>398.741293858373</v>
+        <v>450.2996900468514</v>
       </c>
       <c r="AD13" t="n">
-        <v>322173.3190785435</v>
+        <v>363831.2558968668</v>
       </c>
       <c r="AE13" t="n">
-        <v>440811.7484469789</v>
+        <v>497809.9754202744</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.658877904959106e-06</v>
+        <v>4.494965021754155e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>398741.293858373</v>
+        <v>450299.6900468513</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>808.6249580510225</v>
+        <v>879.2589329580434</v>
       </c>
       <c r="AB2" t="n">
-        <v>1106.396341620813</v>
+        <v>1203.040862239645</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000.80342761354</v>
+        <v>1088.224330825948</v>
       </c>
       <c r="AD2" t="n">
-        <v>808624.9580510225</v>
+        <v>879258.9329580434</v>
       </c>
       <c r="AE2" t="n">
-        <v>1106396.341620813</v>
+        <v>1203040.862239645</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542572698109107e-06</v>
+        <v>2.671413526974286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58940972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000803.42761354</v>
+        <v>1088224.330825948</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.3428104033308</v>
+        <v>507.7956496226315</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.7566097346444</v>
+        <v>694.7884101766673</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.0352771564869</v>
+        <v>628.4787794510635</v>
       </c>
       <c r="AD3" t="n">
-        <v>457342.8104033308</v>
+        <v>507795.6496226315</v>
       </c>
       <c r="AE3" t="n">
-        <v>625756.6097346444</v>
+        <v>694788.4101766673</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20128823258435e-06</v>
+        <v>3.812171166067932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.522569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>566035.2771564869</v>
+        <v>628478.7794510635</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.6814284921077</v>
+        <v>435.0489268568368</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.3381014097786</v>
+        <v>595.2531347296036</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.1051317313934</v>
+        <v>538.4430109940312</v>
       </c>
       <c r="AD4" t="n">
-        <v>384681.4284921077</v>
+        <v>435048.9268568368</v>
       </c>
       <c r="AE4" t="n">
-        <v>526338.1014097786</v>
+        <v>595253.1347296037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441304083489186e-06</v>
+        <v>4.22782845831833e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.585069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>476105.1317313934</v>
+        <v>538443.0109940312</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.2735515763543</v>
+        <v>394.5505716057743</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.7327027127936</v>
+        <v>539.8414984137627</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.470493892505</v>
+        <v>488.319783477454</v>
       </c>
       <c r="AD5" t="n">
-        <v>354273.5515763543</v>
+        <v>394550.5716057743</v>
       </c>
       <c r="AE5" t="n">
-        <v>484732.7027127936</v>
+        <v>539841.4984137627</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.570922301563347e-06</v>
+        <v>4.452300122785144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.153211805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>438470.493892505</v>
+        <v>488319.783477454</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.5189049425252</v>
+        <v>364.8811763179657</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.0210825060235</v>
+        <v>499.2465228596418</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.6443335791512</v>
+        <v>451.5991354148125</v>
       </c>
       <c r="AD6" t="n">
-        <v>324518.9049425252</v>
+        <v>364881.1763179657</v>
       </c>
       <c r="AE6" t="n">
-        <v>444021.0825060235</v>
+        <v>499246.5228596418</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.64780464253729e-06</v>
+        <v>4.585444269518069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>401644.3335791512</v>
+        <v>451599.1354148125</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.9279552609058</v>
+        <v>348.2902266363462</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.3206132105897</v>
+        <v>476.546053564208</v>
       </c>
       <c r="AC7" t="n">
-        <v>381.1103652129647</v>
+        <v>431.0651670486261</v>
       </c>
       <c r="AD7" t="n">
-        <v>307927.9552609058</v>
+        <v>348290.2266363463</v>
       </c>
       <c r="AE7" t="n">
-        <v>421320.6132105897</v>
+        <v>476546.053564208</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.707398115377646e-06</v>
+        <v>4.688647709887684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.740885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>381110.3652129647</v>
+        <v>431065.1670486261</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>296.0330322075527</v>
+        <v>336.3953035829932</v>
       </c>
       <c r="AB8" t="n">
-        <v>405.0454547220232</v>
+        <v>460.2708950756414</v>
       </c>
       <c r="AC8" t="n">
-        <v>366.3884850082187</v>
+        <v>416.3432868438799</v>
       </c>
       <c r="AD8" t="n">
-        <v>296033.0322075527</v>
+        <v>336395.3035829932</v>
       </c>
       <c r="AE8" t="n">
-        <v>405045.4547220232</v>
+        <v>460270.8950756413</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.739271447690964e-06</v>
+        <v>4.743845660166409e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.651909722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>366388.4850082187</v>
+        <v>416343.2868438799</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>294.0849650111423</v>
+        <v>334.4472363865829</v>
       </c>
       <c r="AB9" t="n">
-        <v>402.3800232412353</v>
+        <v>457.6054635948536</v>
       </c>
       <c r="AC9" t="n">
-        <v>363.9774385670005</v>
+        <v>413.9322404026619</v>
       </c>
       <c r="AD9" t="n">
-        <v>294084.9650111423</v>
+        <v>334447.2363865829</v>
       </c>
       <c r="AE9" t="n">
-        <v>402380.0232412354</v>
+        <v>457605.4635948536</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743810982899225e-06</v>
+        <v>4.751707186418228e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>363977.4385670006</v>
+        <v>413932.2404026619</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.2120558336371</v>
+        <v>380.7888838972139</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.6519233037658</v>
+        <v>521.0121501680972</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.878827465671</v>
+        <v>471.2874818011987</v>
       </c>
       <c r="AD2" t="n">
-        <v>335212.0558336371</v>
+        <v>380788.8838972138</v>
       </c>
       <c r="AE2" t="n">
-        <v>458651.9233037658</v>
+        <v>521012.1501680971</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457825849479016e-06</v>
+        <v>4.650735406069541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.516059027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>414878.8274656709</v>
+        <v>471287.4818011987</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.9472907432323</v>
+        <v>282.3534370976688</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.2017365714443</v>
+        <v>386.3284291915367</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.260377853157</v>
+        <v>349.4577861248516</v>
       </c>
       <c r="AD3" t="n">
-        <v>236947.2907432323</v>
+        <v>282353.4370976688</v>
       </c>
       <c r="AE3" t="n">
-        <v>324201.7365714443</v>
+        <v>386328.4291915367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.924494822434252e-06</v>
+        <v>5.533773525266257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.996961805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>293260.377853157</v>
+        <v>349457.7861248516</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.7266908815415</v>
+        <v>267.1881533324058</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.6904374071859</v>
+        <v>365.578618898803</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.5613851354493</v>
+        <v>330.6883086039147</v>
       </c>
       <c r="AD4" t="n">
-        <v>230726.6908815415</v>
+        <v>267188.1533324058</v>
       </c>
       <c r="AE4" t="n">
-        <v>315690.4374071858</v>
+        <v>365578.618898803</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.962862987416252e-06</v>
+        <v>5.606374349846864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.894965277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>285561.3851354493</v>
+        <v>330688.3086039147</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.3524738643215</v>
+        <v>520.2469176835846</v>
       </c>
       <c r="AB2" t="n">
-        <v>633.9792964096119</v>
+        <v>711.8247844488418</v>
       </c>
       <c r="AC2" t="n">
-        <v>573.4732021558088</v>
+        <v>643.8892260734032</v>
       </c>
       <c r="AD2" t="n">
-        <v>463352.4738643215</v>
+        <v>520246.9176835846</v>
       </c>
       <c r="AE2" t="n">
-        <v>633979.2964096119</v>
+        <v>711824.7844488418</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089332579960437e-06</v>
+        <v>3.806310210344362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.70963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>573473.2021558088</v>
+        <v>643889.2260734031</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.7272826396559</v>
+        <v>351.6285544095251</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.2555087784627</v>
+        <v>481.1137009000984</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.2879654845359</v>
+        <v>435.1968845335124</v>
       </c>
       <c r="AD3" t="n">
-        <v>313727.2826396559</v>
+        <v>351628.5544095251</v>
       </c>
       <c r="AE3" t="n">
-        <v>429255.5087784627</v>
+        <v>481113.7009000984</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.638060767413529e-06</v>
+        <v>4.805973797960465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.480902777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>388287.9654845359</v>
+        <v>435196.8845335124</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.621096211778</v>
+        <v>305.6076193276678</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.1709904464519</v>
+        <v>418.1458272207369</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.2241450424546</v>
+        <v>378.2385763421434</v>
       </c>
       <c r="AD4" t="n">
-        <v>267621.096211778</v>
+        <v>305607.6193276678</v>
       </c>
       <c r="AE4" t="n">
-        <v>366170.9904464519</v>
+        <v>418145.8272207369</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.827156501308487e-06</v>
+        <v>5.150465158292658e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.914496527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>331224.1450424546</v>
+        <v>378238.5763421434</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.1315761078092</v>
+        <v>290.1180992237021</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.9775456906403</v>
+        <v>396.9523824650925</v>
       </c>
       <c r="AC5" t="n">
-        <v>312.0533729090548</v>
+        <v>359.0678042087911</v>
       </c>
       <c r="AD5" t="n">
-        <v>252131.5761078092</v>
+        <v>290118.0992237022</v>
       </c>
       <c r="AE5" t="n">
-        <v>344977.5456906403</v>
+        <v>396952.3824650925</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.895309325792985e-06</v>
+        <v>5.274624803428743e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.727864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>312053.3729090547</v>
+        <v>359067.8042087911</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>253.2950752938383</v>
+        <v>291.2815984097313</v>
       </c>
       <c r="AB6" t="n">
-        <v>346.5694966069259</v>
+        <v>398.5443333813789</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.4933902642078</v>
+        <v>360.5078215639443</v>
       </c>
       <c r="AD6" t="n">
-        <v>253295.0752938383</v>
+        <v>291281.5984097313</v>
       </c>
       <c r="AE6" t="n">
-        <v>346569.4966069259</v>
+        <v>398544.3333813789</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.8948969032545e-06</v>
+        <v>5.273873459131399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.730034722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>313493.3902642078</v>
+        <v>360507.8215639443</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.4269453845442</v>
+        <v>295.3548543653122</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.013438848956</v>
+        <v>404.117541879175</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.1812790712081</v>
+        <v>365.5491308647581</v>
       </c>
       <c r="AD2" t="n">
-        <v>251426.9453845442</v>
+        <v>295354.8543653123</v>
       </c>
       <c r="AE2" t="n">
-        <v>344013.438848956</v>
+        <v>404117.541879175</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.77932566472473e-06</v>
+        <v>5.446582802831491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.739149305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>311181.2790712081</v>
+        <v>365549.130864758</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.0984735744805</v>
+        <v>257.2238220967287</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.8849298375883</v>
+        <v>351.9449813067142</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.8825786391564</v>
+        <v>318.3558462487902</v>
       </c>
       <c r="AD3" t="n">
-        <v>222098.4735744805</v>
+        <v>257223.8220967287</v>
       </c>
       <c r="AE3" t="n">
-        <v>303884.9298375883</v>
+        <v>351944.9813067142</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996254103638807e-06</v>
+        <v>5.871692648658613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>274882.5786391564</v>
+        <v>318355.8462487902</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>886.8906713443288</v>
+        <v>958.0353654284207</v>
       </c>
       <c r="AB2" t="n">
-        <v>1213.482943388296</v>
+        <v>1310.826252516536</v>
       </c>
       <c r="AC2" t="n">
-        <v>1097.669834405324</v>
+        <v>1185.722834732558</v>
       </c>
       <c r="AD2" t="n">
-        <v>886890.6713443288</v>
+        <v>958035.3654284207</v>
       </c>
       <c r="AE2" t="n">
-        <v>1213482.943388296</v>
+        <v>1310826.252516537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467360491730859e-06</v>
+        <v>2.524566150341745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.15581597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1097669.834405324</v>
+        <v>1185722.834732558</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.1431351649537</v>
+        <v>531.0216676150342</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.9530199528339</v>
+        <v>726.5672726534696</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.254345767889</v>
+        <v>657.2247118949934</v>
       </c>
       <c r="AD3" t="n">
-        <v>480143.1351649537</v>
+        <v>531021.6676150342</v>
       </c>
       <c r="AE3" t="n">
-        <v>656953.0199528339</v>
+        <v>726567.2726534696</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.142461179805076e-06</v>
+        <v>3.686064197201518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>594254.3457678891</v>
+        <v>657224.7118949934</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.5696483612983</v>
+        <v>452.3628399568071</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.4453088904822</v>
+        <v>618.9427944689202</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.0070197613082</v>
+        <v>559.8717628564737</v>
       </c>
       <c r="AD4" t="n">
-        <v>401569.6483612983</v>
+        <v>452362.8399568071</v>
       </c>
       <c r="AE4" t="n">
-        <v>549445.3088904823</v>
+        <v>618942.7944689202</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390467118100878e-06</v>
+        <v>4.112753753335599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.689236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>497007.0197613082</v>
+        <v>559871.7628564737</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.2910804569734</v>
+        <v>409.9086550710171</v>
       </c>
       <c r="AB5" t="n">
-        <v>505.2803482538719</v>
+        <v>560.855105761731</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.0571009819444</v>
+        <v>507.3278816329155</v>
       </c>
       <c r="AD5" t="n">
-        <v>369291.0804569733</v>
+        <v>409908.6550710171</v>
       </c>
       <c r="AE5" t="n">
-        <v>505280.3482538719</v>
+        <v>560855.105761731</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522653996057846e-06</v>
+        <v>4.340178792710807e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.233506944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>457057.1009819444</v>
+        <v>507327.8816329155</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.27585800045</v>
+        <v>389.9837087413872</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.2121967106977</v>
+        <v>533.5929151669379</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.908436182538</v>
+        <v>482.6675562457647</v>
       </c>
       <c r="AD6" t="n">
-        <v>339275.85800045</v>
+        <v>389983.7087413872</v>
       </c>
       <c r="AE6" t="n">
-        <v>464212.1967106977</v>
+        <v>533592.915166938</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.601334382502906e-06</v>
+        <v>4.475546918971792e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.986111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>419908.436182538</v>
+        <v>482667.5562457647</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.8677485652556</v>
+        <v>364.5705745253198</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.1301416236512</v>
+        <v>498.8215437841598</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.8384228441491</v>
+        <v>451.2147157458326</v>
       </c>
       <c r="AD7" t="n">
-        <v>323867.7485652555</v>
+        <v>364570.5745253199</v>
       </c>
       <c r="AE7" t="n">
-        <v>443130.1416236513</v>
+        <v>498821.5437841598</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.657425266270309e-06</v>
+        <v>4.572050230393858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.816840277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>400838.4228441491</v>
+        <v>451214.7157458325</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.5171708501699</v>
+        <v>356.2199968102342</v>
       </c>
       <c r="AB8" t="n">
-        <v>431.7045127923828</v>
+        <v>487.3959149528913</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.5032399925662</v>
+        <v>440.8795328942496</v>
       </c>
       <c r="AD8" t="n">
-        <v>315517.1708501699</v>
+        <v>356219.9968102342</v>
       </c>
       <c r="AE8" t="n">
-        <v>431704.5127923829</v>
+        <v>487395.9149528913</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.671878719254742e-06</v>
+        <v>4.596917124634015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>390503.2399925662</v>
+        <v>440879.5328942496</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>300.5399726113384</v>
+        <v>341.2427985714028</v>
       </c>
       <c r="AB9" t="n">
-        <v>411.2120494146606</v>
+        <v>466.9034515751691</v>
       </c>
       <c r="AC9" t="n">
-        <v>371.9665485582607</v>
+        <v>422.3428414599442</v>
       </c>
       <c r="AD9" t="n">
-        <v>300539.9726113384</v>
+        <v>341242.7985714028</v>
       </c>
       <c r="AE9" t="n">
-        <v>411212.0494146605</v>
+        <v>466903.4515751691</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.72289653674284e-06</v>
+        <v>4.684692320859204e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.628038194444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>371966.5485582607</v>
+        <v>422342.8414599441</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>301.2680677341819</v>
+        <v>341.9708936942462</v>
       </c>
       <c r="AB10" t="n">
-        <v>412.2082612830248</v>
+        <v>467.8996634435334</v>
       </c>
       <c r="AC10" t="n">
-        <v>372.8676833641004</v>
+        <v>423.2439762657838</v>
       </c>
       <c r="AD10" t="n">
-        <v>301268.0677341819</v>
+        <v>341970.8936942462</v>
       </c>
       <c r="AE10" t="n">
-        <v>412208.2612830248</v>
+        <v>467899.6634435334</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.72423659198643e-06</v>
+        <v>4.686997860722531e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.625868055555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>372867.6833641004</v>
+        <v>423243.9762657838</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.0063503606353</v>
+        <v>249.3910009462994</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.1811739740161</v>
+        <v>341.2277698490215</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.1049356158936</v>
+        <v>308.6614704109154</v>
       </c>
       <c r="AD2" t="n">
-        <v>215006.3503606353</v>
+        <v>249391.0009462993</v>
       </c>
       <c r="AE2" t="n">
-        <v>294181.1739740161</v>
+        <v>341227.7698490215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.961955612295713e-06</v>
+        <v>5.937715053235367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.391927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>266104.9356158936</v>
+        <v>308661.4704109154</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1651601398516</v>
+        <v>248.5498107255156</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.0302204032469</v>
+        <v>340.0768162782522</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0638274385447</v>
+        <v>307.6203622335665</v>
       </c>
       <c r="AD3" t="n">
-        <v>214165.1601398516</v>
+        <v>248549.8107255156</v>
       </c>
       <c r="AE3" t="n">
-        <v>293030.2204032469</v>
+        <v>340076.8162782522</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981543902109015e-06</v>
+        <v>5.976982921669572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.337673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>265063.8274385447</v>
+        <v>307620.3622335665</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.3675484176898</v>
+        <v>683.1678075375589</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.287224897281</v>
+        <v>934.7403335094369</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.7552511527342</v>
+        <v>845.5300279955933</v>
       </c>
       <c r="AD2" t="n">
-        <v>624367.5484176899</v>
+        <v>683167.807537559</v>
       </c>
       <c r="AE2" t="n">
-        <v>854287.224897281</v>
+        <v>934740.3335094369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.791340001222279e-06</v>
+        <v>3.172596251086762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05512152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>772755.2511527343</v>
+        <v>845530.0279955933</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.6830349632843</v>
+        <v>428.6689528302873</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.4990788700828</v>
+        <v>586.5237728018895</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.9188159042578</v>
+        <v>530.5467671169617</v>
       </c>
       <c r="AD3" t="n">
-        <v>379683.0349632843</v>
+        <v>428668.9528302873</v>
       </c>
       <c r="AE3" t="n">
-        <v>519499.0788700829</v>
+        <v>586523.7728018896</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.400859333897489e-06</v>
+        <v>4.252100280746582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.995225694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>469918.8159042578</v>
+        <v>530546.7671169618</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.4241282911518</v>
+        <v>370.5958839223911</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.4691137285685</v>
+        <v>507.0656379191227</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.1906579622115</v>
+        <v>458.6720051072134</v>
       </c>
       <c r="AD4" t="n">
-        <v>331424.1282911518</v>
+        <v>370595.883922391</v>
       </c>
       <c r="AE4" t="n">
-        <v>453469.1137285685</v>
+        <v>507065.6379191227</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.621380940625369e-06</v>
+        <v>4.642660432538609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>410190.6579622115</v>
+        <v>458672.0051072134</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.6490431388506</v>
+        <v>335.9060501161104</v>
       </c>
       <c r="AB5" t="n">
-        <v>405.8883080547093</v>
+        <v>459.6014768979128</v>
       </c>
       <c r="AC5" t="n">
-        <v>367.1508976017852</v>
+        <v>415.7377569974994</v>
       </c>
       <c r="AD5" t="n">
-        <v>296649.0431388506</v>
+        <v>335906.0501161104</v>
       </c>
       <c r="AE5" t="n">
-        <v>405888.3080547093</v>
+        <v>459601.4768979128</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.733432984477171e-06</v>
+        <v>4.841112928440153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.901475694444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>367150.8976017853</v>
+        <v>415737.7569974994</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>276.4460358228775</v>
+        <v>315.7030428001373</v>
       </c>
       <c r="AB6" t="n">
-        <v>378.2456621512165</v>
+        <v>431.9588309944199</v>
       </c>
       <c r="AC6" t="n">
-        <v>342.1464270266246</v>
+        <v>390.7332864223387</v>
       </c>
       <c r="AD6" t="n">
-        <v>276446.0358228775</v>
+        <v>315703.0428001373</v>
       </c>
       <c r="AE6" t="n">
-        <v>378245.6621512165</v>
+        <v>431958.8309944199</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.810953892257414e-06</v>
+        <v>4.978408216457297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>342146.4270266246</v>
+        <v>390733.2864223387</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>272.8351144519805</v>
+        <v>312.0921214292403</v>
       </c>
       <c r="AB7" t="n">
-        <v>373.3050402289472</v>
+        <v>427.0182090721508</v>
       </c>
       <c r="AC7" t="n">
-        <v>337.6773311264104</v>
+        <v>386.2641905221245</v>
       </c>
       <c r="AD7" t="n">
-        <v>272835.1144519805</v>
+        <v>312092.1214292403</v>
       </c>
       <c r="AE7" t="n">
-        <v>373305.0402289472</v>
+        <v>427018.2090721508</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826278949764676e-06</v>
+        <v>5.005550032060172e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.641059027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>337677.3311264104</v>
+        <v>386264.1905221245</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>746.1903335296457</v>
+        <v>806.2035732011506</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.970533929429</v>
+        <v>1103.083296045258</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.5305391123476</v>
+        <v>997.8065744578274</v>
       </c>
       <c r="AD2" t="n">
-        <v>746190.3335296457</v>
+        <v>806203.5732011505</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020970.533929429</v>
+        <v>1103083.296045258</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>2.826698149839258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>923530.5391123475</v>
+        <v>997806.5744578274</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.7939030981636</v>
+        <v>483.6342693666996</v>
       </c>
       <c r="AB3" t="n">
-        <v>593.5359558552465</v>
+        <v>661.7297437856334</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.889717261367</v>
+        <v>598.5751857822604</v>
       </c>
       <c r="AD3" t="n">
-        <v>433793.9030981636</v>
+        <v>483634.2693666996</v>
       </c>
       <c r="AE3" t="n">
-        <v>593535.9558552465</v>
+        <v>661729.7437856335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.267048466904142e-06</v>
+        <v>3.953534569412452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.333767361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>536889.717261367</v>
+        <v>598575.1857822604</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.8830844770254</v>
+        <v>406.8065999063074</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.9856219208221</v>
+        <v>556.61073703236</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.0768187059434</v>
+        <v>503.4885894980667</v>
       </c>
       <c r="AD4" t="n">
-        <v>366883.0844770254</v>
+        <v>406806.5999063074</v>
       </c>
       <c r="AE4" t="n">
-        <v>501985.6219208221</v>
+        <v>556610.73703236</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499398752768516e-06</v>
+        <v>4.358733179317827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.465711805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>454076.8187059434</v>
+        <v>503488.5894980667</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.3383055870761</v>
+        <v>378.2618210163582</v>
       </c>
       <c r="AB5" t="n">
-        <v>462.9293961368265</v>
+        <v>517.5545112483644</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.7480642950151</v>
+        <v>468.1598350871384</v>
       </c>
       <c r="AD5" t="n">
-        <v>338338.3055870762</v>
+        <v>378261.8210163582</v>
       </c>
       <c r="AE5" t="n">
-        <v>462929.3961368265</v>
+        <v>517554.5112483644</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.624007928318105e-06</v>
+        <v>4.576040700702245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.064236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>418748.0642950151</v>
+        <v>468159.8350871385</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.082709633421</v>
+        <v>349.0914764087235</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.9005990872325</v>
+        <v>477.6423588514198</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.5395594550649</v>
+        <v>432.0568424979005</v>
       </c>
       <c r="AD6" t="n">
-        <v>309082.709633421</v>
+        <v>349091.4764087235</v>
       </c>
       <c r="AE6" t="n">
-        <v>422900.5990872325</v>
+        <v>477642.3588514198</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.697817901628777e-06</v>
+        <v>4.704758849127914e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.842881944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>382539.5594550649</v>
+        <v>432056.8424979005</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>290.3753188494215</v>
+        <v>330.3840856247242</v>
       </c>
       <c r="AB7" t="n">
-        <v>397.3043217047307</v>
+        <v>452.0460814689179</v>
       </c>
       <c r="AC7" t="n">
-        <v>359.3861548613481</v>
+        <v>408.9034379041837</v>
       </c>
       <c r="AD7" t="n">
-        <v>290375.3188494216</v>
+        <v>330384.0856247242</v>
       </c>
       <c r="AE7" t="n">
-        <v>397304.3217047307</v>
+        <v>452046.0814689179</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.768995286723613e-06</v>
+        <v>4.828885993580672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.641059027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>359386.1548613481</v>
+        <v>408903.4379041837</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>287.3963004716153</v>
+        <v>327.4050672469179</v>
       </c>
       <c r="AB8" t="n">
-        <v>393.2282973352009</v>
+        <v>447.9700570993881</v>
       </c>
       <c r="AC8" t="n">
-        <v>355.69914053691</v>
+        <v>405.2164235797457</v>
       </c>
       <c r="AD8" t="n">
-        <v>287396.3004716153</v>
+        <v>327405.0672469179</v>
       </c>
       <c r="AE8" t="n">
-        <v>393228.2973352009</v>
+        <v>447970.0570993881</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.763925116826447e-06</v>
+        <v>4.820044060003216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH8" t="n">
-        <v>355699.14053691</v>
+        <v>405216.4235797456</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>287.5599603319038</v>
+        <v>327.5687271072064</v>
       </c>
       <c r="AB9" t="n">
-        <v>393.4522239762111</v>
+        <v>448.1939837403983</v>
       </c>
       <c r="AC9" t="n">
-        <v>355.9016959335854</v>
+        <v>405.4189789764209</v>
       </c>
       <c r="AD9" t="n">
-        <v>287559.9603319038</v>
+        <v>327568.7271072064</v>
       </c>
       <c r="AE9" t="n">
-        <v>393452.2239762111</v>
+        <v>448193.9837403983</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.770555338999664e-06</v>
+        <v>4.831606588527582e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>355901.6959335853</v>
+        <v>405418.9789764209</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1056.797313548627</v>
+        <v>1139.32612393883</v>
       </c>
       <c r="AB2" t="n">
-        <v>1445.956707004247</v>
+        <v>1558.876266294274</v>
       </c>
       <c r="AC2" t="n">
-        <v>1307.956628300745</v>
+        <v>1410.099303335729</v>
       </c>
       <c r="AD2" t="n">
-        <v>1056797.313548627</v>
+        <v>1139326.12393883</v>
       </c>
       <c r="AE2" t="n">
-        <v>1445956.707004247</v>
+        <v>1558876.266294274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.323785089084357e-06</v>
+        <v>2.250346915761441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.42751736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1307956.628300746</v>
+        <v>1410099.303335729</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.1511986644704</v>
+        <v>593.7530739376966</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.7951880355649</v>
+        <v>812.3991502984617</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.9992964055352</v>
+        <v>734.8649156033443</v>
       </c>
       <c r="AD3" t="n">
-        <v>542151.1986644703</v>
+        <v>593753.0739376966</v>
       </c>
       <c r="AE3" t="n">
-        <v>741795.188035565</v>
+        <v>812399.1502984617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.020687448295908e-06</v>
+        <v>3.435034738256356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10633680555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>670999.2964055352</v>
+        <v>734864.9156033443</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.9578869617258</v>
+        <v>488.559672726401</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.8650581624889</v>
+        <v>668.4688979558374</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.8056561203394</v>
+        <v>604.6711645369222</v>
       </c>
       <c r="AD4" t="n">
-        <v>436957.8869617258</v>
+        <v>488559.672726401</v>
       </c>
       <c r="AE4" t="n">
-        <v>597865.058162489</v>
+        <v>668468.8979558374</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.288907802617707e-06</v>
+        <v>3.890991563929618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.923611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>540805.6561203394</v>
+        <v>604671.1645369222</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>401.5289575390041</v>
+        <v>442.7934074883809</v>
       </c>
       <c r="AB5" t="n">
-        <v>549.389633912267</v>
+        <v>605.8494747920545</v>
       </c>
       <c r="AC5" t="n">
-        <v>496.9566583248734</v>
+        <v>548.0280512329784</v>
       </c>
       <c r="AD5" t="n">
-        <v>401528.957539004</v>
+        <v>442793.4074883809</v>
       </c>
       <c r="AE5" t="n">
-        <v>549389.6339122669</v>
+        <v>605849.4747920545</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.424523778259009e-06</v>
+        <v>4.121529734384064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.424479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>496956.6583248734</v>
+        <v>548028.0512329785</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>378.8657792169241</v>
+        <v>420.130229166301</v>
       </c>
       <c r="AB6" t="n">
-        <v>518.3808735031339</v>
+        <v>574.8407143829215</v>
       </c>
       <c r="AC6" t="n">
-        <v>468.9073304881194</v>
+        <v>519.9787233962245</v>
       </c>
       <c r="AD6" t="n">
-        <v>378865.779216924</v>
+        <v>420130.229166301</v>
       </c>
       <c r="AE6" t="n">
-        <v>518380.8735031339</v>
+        <v>574840.7143829216</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.512330652147514e-06</v>
+        <v>4.270795600472891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.129340277777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>468907.3304881194</v>
+        <v>519978.7233962245</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>352.6248051272531</v>
+        <v>404.1412500373567</v>
       </c>
       <c r="AB7" t="n">
-        <v>482.4768150835735</v>
+        <v>552.9638877547243</v>
       </c>
       <c r="AC7" t="n">
-        <v>436.4299050124594</v>
+        <v>500.1897903971034</v>
       </c>
       <c r="AD7" t="n">
-        <v>352624.8051272531</v>
+        <v>404141.2500373566</v>
       </c>
       <c r="AE7" t="n">
-        <v>482476.8150835735</v>
+        <v>552963.8877547242</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568327533137503e-06</v>
+        <v>4.365986586885379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>436429.9050124594</v>
+        <v>500189.7903971034</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.182515367541</v>
+        <v>379.5322166629385</v>
       </c>
       <c r="AB8" t="n">
-        <v>462.716237085479</v>
+        <v>519.292722617916</v>
       </c>
       <c r="AC8" t="n">
-        <v>418.5552488443577</v>
+        <v>469.732154003175</v>
       </c>
       <c r="AD8" t="n">
-        <v>338182.5153675411</v>
+        <v>379532.2166629385</v>
       </c>
       <c r="AE8" t="n">
-        <v>462716.237085479</v>
+        <v>519292.7226179159</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.620089355901359e-06</v>
+        <v>4.453978254997763e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>418555.2488443577</v>
+        <v>469732.154003175</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>327.7803291543783</v>
+        <v>369.1300304497757</v>
       </c>
       <c r="AB9" t="n">
-        <v>448.4835069965624</v>
+        <v>505.0599925289993</v>
       </c>
       <c r="AC9" t="n">
-        <v>405.6808705393652</v>
+        <v>456.8577756981825</v>
       </c>
       <c r="AD9" t="n">
-        <v>327780.3291543783</v>
+        <v>369130.0304497757</v>
       </c>
       <c r="AE9" t="n">
-        <v>448483.5069965624</v>
+        <v>505059.9925289993</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646817278928513e-06</v>
+        <v>4.499413952713975e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.717013888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>405680.8705393652</v>
+        <v>456857.7756981825</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>318.3421682541285</v>
+        <v>359.691869549526</v>
       </c>
       <c r="AB10" t="n">
-        <v>435.5697988705686</v>
+        <v>492.1462844030055</v>
       </c>
       <c r="AC10" t="n">
-        <v>393.999628592413</v>
+        <v>445.1765337512303</v>
       </c>
       <c r="AD10" t="n">
-        <v>318342.1682541285</v>
+        <v>359691.869549526</v>
       </c>
       <c r="AE10" t="n">
-        <v>435569.7988705686</v>
+        <v>492146.2844030055</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.669780705754661e-06</v>
+        <v>4.538450256385651e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>393999.628592413</v>
+        <v>445176.5337512303</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>313.8492598300547</v>
+        <v>355.1989611254522</v>
       </c>
       <c r="AB11" t="n">
-        <v>429.4224033516203</v>
+        <v>485.9988888840572</v>
       </c>
       <c r="AC11" t="n">
-        <v>388.4389318738693</v>
+        <v>439.6158370326866</v>
       </c>
       <c r="AD11" t="n">
-        <v>313849.2598300547</v>
+        <v>355198.9611254522</v>
       </c>
       <c r="AE11" t="n">
-        <v>429422.4033516203</v>
+        <v>485998.8888840572</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.680038957902406e-06</v>
+        <v>4.555888605157014e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>388438.9318738693</v>
+        <v>439615.8370326866</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>315.116996019953</v>
+        <v>356.4666973153504</v>
       </c>
       <c r="AB12" t="n">
-        <v>431.1569759352125</v>
+        <v>487.7334614676494</v>
       </c>
       <c r="AC12" t="n">
-        <v>390.0079592845714</v>
+        <v>441.1848644433887</v>
       </c>
       <c r="AD12" t="n">
-        <v>315116.996019953</v>
+        <v>356466.6973153504</v>
       </c>
       <c r="AE12" t="n">
-        <v>431156.9759352125</v>
+        <v>487733.4614676494</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.67956839587728e-06</v>
+        <v>4.555088680901447e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>390007.9592845714</v>
+        <v>441184.8644433887</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.2018713161407</v>
+        <v>565.2426926304616</v>
       </c>
       <c r="AB2" t="n">
-        <v>707.6584176709401</v>
+        <v>773.38998880465</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.120491493252</v>
+        <v>699.5787337328003</v>
       </c>
       <c r="AD2" t="n">
-        <v>517201.8713161406</v>
+        <v>565242.6926304616</v>
       </c>
       <c r="AE2" t="n">
-        <v>707658.4176709402</v>
+        <v>773389.98880465</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.983258789904234e-06</v>
+        <v>3.576284916443275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14149305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>640120.491493252</v>
+        <v>699578.7337328002</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.3707852658311</v>
+        <v>384.3261762170294</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.2373480324284</v>
+        <v>525.8520295743922</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.3129414833875</v>
+        <v>475.6654499097702</v>
       </c>
       <c r="AD3" t="n">
-        <v>336370.7852658311</v>
+        <v>384326.1762170294</v>
       </c>
       <c r="AE3" t="n">
-        <v>460237.3480324284</v>
+        <v>525852.0295743922</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>4.599837891912819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.661024305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>416312.9414833875</v>
+        <v>475665.4499097702</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.7124410093073</v>
+        <v>333.0597751079026</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.2385635842119</v>
+        <v>455.7070778628917</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.7540410246124</v>
+        <v>412.2150339405574</v>
       </c>
       <c r="AD4" t="n">
-        <v>294712.4410093073</v>
+        <v>333059.7751079026</v>
       </c>
       <c r="AE4" t="n">
-        <v>403238.5635842119</v>
+        <v>455707.0778628917</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760108965322341e-06</v>
+        <v>4.977129616502939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.005642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>364754.0410246124</v>
+        <v>412215.0339405574</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.2861177890957</v>
+        <v>300.7187032337117</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.8714376059012</v>
+        <v>411.4565965372302</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.6212512800192</v>
+        <v>372.1877564466763</v>
       </c>
       <c r="AD5" t="n">
-        <v>262286.1177890957</v>
+        <v>300718.7032337117</v>
       </c>
       <c r="AE5" t="n">
-        <v>358871.4376059012</v>
+        <v>411456.5965372302</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.855509832211825e-06</v>
+        <v>5.149159955160331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.738715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>324621.2512800192</v>
+        <v>372187.7564466763</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>260.1641942924754</v>
+        <v>298.5967797370913</v>
       </c>
       <c r="AB6" t="n">
-        <v>355.9681282651674</v>
+        <v>408.5532871964965</v>
       </c>
       <c r="AC6" t="n">
-        <v>321.9950297079448</v>
+        <v>369.561534874602</v>
       </c>
       <c r="AD6" t="n">
-        <v>260164.1942924754</v>
+        <v>298596.7797370913</v>
       </c>
       <c r="AE6" t="n">
-        <v>355968.1282651674</v>
+        <v>408553.2871964964</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.868440365931104e-06</v>
+        <v>5.172476767336946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.703993055555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>321995.0297079448</v>
+        <v>369561.534874602</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.1034895692218</v>
+        <v>428.4431308569361</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.49665459287</v>
+        <v>586.214793215388</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.7755703650805</v>
+        <v>530.2672761085404</v>
       </c>
       <c r="AD2" t="n">
-        <v>373103.4895692219</v>
+        <v>428443.1308569361</v>
       </c>
       <c r="AE2" t="n">
-        <v>510496.65459287</v>
+        <v>586214.793215388</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.324148770433373e-06</v>
+        <v>4.33611870835243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>461775.5703650805</v>
+        <v>530267.2761085404</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.2806009774386</v>
+        <v>306.202231629323</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.4415980790118</v>
+        <v>418.9594020043048</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.2780490693809</v>
+        <v>378.974504690227</v>
       </c>
       <c r="AD3" t="n">
-        <v>269280.6009774386</v>
+        <v>306202.231629323</v>
       </c>
       <c r="AE3" t="n">
-        <v>368441.5980790118</v>
+        <v>418959.4020043048</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.822620031774838e-06</v>
+        <v>5.266106749296868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.153211805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>333278.0490693809</v>
+        <v>378974.504690227</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.0059037366096</v>
+        <v>275.0127857345175</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.6501775716916</v>
+        <v>376.2846261497909</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.5705816772409</v>
+        <v>340.3725495488439</v>
       </c>
       <c r="AD4" t="n">
-        <v>238005.9037366096</v>
+        <v>275012.7857345175</v>
       </c>
       <c r="AE4" t="n">
-        <v>325650.1775716916</v>
+        <v>376284.6261497909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940768326484283e-06</v>
+        <v>5.486533701980295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.825520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>294570.5816772409</v>
+        <v>340372.5495488439</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.3414653883326</v>
+        <v>276.3483473862406</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.4775519443997</v>
+        <v>378.1120005225</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.2235540045543</v>
+        <v>342.0255218761577</v>
       </c>
       <c r="AD5" t="n">
-        <v>239341.4653883326</v>
+        <v>276348.3473862406</v>
       </c>
       <c r="AE5" t="n">
-        <v>327477.5519443997</v>
+        <v>378112.0005225</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.940662268769104e-06</v>
+        <v>5.48633583218435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.827690972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>296223.5540045543</v>
+        <v>342025.5218761577</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.0002407748455</v>
+        <v>333.8676208693673</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.7370762709101</v>
+        <v>456.8124080733673</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.8232219741942</v>
+        <v>413.2148729870859</v>
       </c>
       <c r="AD2" t="n">
-        <v>298000.2407748455</v>
+        <v>333867.6208693673</v>
       </c>
       <c r="AE2" t="n">
-        <v>407737.07627091</v>
+        <v>456812.4080733673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.60653349930196e-06</v>
+        <v>5.012460578823561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>368823.2219741942</v>
+        <v>413214.872987086</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.836952237167</v>
+        <v>266.50038376049</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.527104806369</v>
+        <v>364.6375822282557</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.558903926706</v>
+        <v>329.8370831524512</v>
       </c>
       <c r="AD3" t="n">
-        <v>221836.952237167</v>
+        <v>266500.38376049</v>
       </c>
       <c r="AE3" t="n">
-        <v>303527.104806369</v>
+        <v>364637.5822282557</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.982735341591143e-06</v>
+        <v>5.735910672467218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.981770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>274558.903926706</v>
+        <v>329837.0831524511</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.2696234199856</v>
+        <v>267.9330549433087</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.4873487236923</v>
+        <v>366.59782614558</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.3320649157802</v>
+        <v>331.6102441415257</v>
       </c>
       <c r="AD4" t="n">
-        <v>223269.6234199856</v>
+        <v>267933.0549433086</v>
       </c>
       <c r="AE4" t="n">
-        <v>305487.3487236923</v>
+        <v>366597.82614558</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982406206121074e-06</v>
+        <v>5.735277732752743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.983940972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>276332.0649157802</v>
+        <v>331610.2441415257</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.2746579486769</v>
+        <v>244.1996508446179</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.7611107333557</v>
+        <v>334.1247356137018</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.3474187617039</v>
+        <v>302.2363397938412</v>
       </c>
       <c r="AD2" t="n">
-        <v>202274.6579486769</v>
+        <v>244199.6508446179</v>
       </c>
       <c r="AE2" t="n">
-        <v>276761.1107333557</v>
+        <v>334124.7356137017</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.936791100744545e-06</v>
+        <v>6.05742333137984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.702256944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>250347.4187617039</v>
+        <v>302236.3397938412</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>677.5562758897474</v>
+        <v>737.1029725654433</v>
       </c>
       <c r="AB2" t="n">
-        <v>927.0623883455967</v>
+        <v>1008.536805752136</v>
       </c>
       <c r="AC2" t="n">
-        <v>838.5848551421263</v>
+        <v>912.2834685014484</v>
       </c>
       <c r="AD2" t="n">
-        <v>677556.2758897474</v>
+        <v>737102.9725654434</v>
       </c>
       <c r="AE2" t="n">
-        <v>927062.3883455967</v>
+        <v>1008536.805752136</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.704728947527717e-06</v>
+        <v>2.995141513041001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53689236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>838584.8551421263</v>
+        <v>912283.4685014484</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.2026551240142</v>
+        <v>451.8436485133148</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.9938578383816</v>
+        <v>618.2324138308242</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.1670756166366</v>
+        <v>559.2291799494519</v>
       </c>
       <c r="AD3" t="n">
-        <v>412202.6551240142</v>
+        <v>451843.6485133148</v>
       </c>
       <c r="AE3" t="n">
-        <v>563993.8578383815</v>
+        <v>618232.4138308242</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.329957073450742e-06</v>
+        <v>4.093642666428865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.173177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>510167.0756166365</v>
+        <v>559229.1799494519</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.1487046577659</v>
+        <v>388.7043571924949</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.7206610664917</v>
+        <v>531.8424499367366</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.1276716594639</v>
+        <v>481.0841529603402</v>
       </c>
       <c r="AD4" t="n">
-        <v>349148.7046577659</v>
+        <v>388704.3571924949</v>
       </c>
       <c r="AE4" t="n">
-        <v>477720.6610664917</v>
+        <v>531842.4499367366</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.559604575364822e-06</v>
+        <v>4.497124268208751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.348524305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>432127.6716594639</v>
+        <v>481084.1529603403</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.8408777480483</v>
+        <v>362.221325889842</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.0426905003413</v>
+        <v>495.6071981595639</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.1908968806773</v>
+        <v>448.3071427562856</v>
       </c>
       <c r="AD5" t="n">
-        <v>312840.8777480483</v>
+        <v>362221.325889842</v>
       </c>
       <c r="AE5" t="n">
-        <v>428042.6905003414</v>
+        <v>495607.1981595639</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675511569255418e-06</v>
+        <v>4.700768284201429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.98828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>387190.8968806773</v>
+        <v>448307.1427562856</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>293.3132856216037</v>
+        <v>332.9541895023532</v>
       </c>
       <c r="AB6" t="n">
-        <v>401.3241774563766</v>
+        <v>455.562610979271</v>
       </c>
       <c r="AC6" t="n">
-        <v>363.02236122196</v>
+        <v>412.0843547735488</v>
       </c>
       <c r="AD6" t="n">
-        <v>293313.2856216037</v>
+        <v>332954.1895023533</v>
       </c>
       <c r="AE6" t="n">
-        <v>401324.1774563766</v>
+        <v>455562.610979271</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.75114162134376e-06</v>
+        <v>4.833647302283314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>363022.36122196</v>
+        <v>412084.3547735488</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.319072653703</v>
+        <v>315.9599765344526</v>
       </c>
       <c r="AB7" t="n">
-        <v>378.0719455419322</v>
+        <v>432.3103790648264</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.9892896867176</v>
+        <v>391.0512832383064</v>
       </c>
       <c r="AD7" t="n">
-        <v>276319.072653703</v>
+        <v>315959.9765344526</v>
       </c>
       <c r="AE7" t="n">
-        <v>378071.9455419322</v>
+        <v>432310.3790648264</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.822143271806904e-06</v>
+        <v>4.958394401289874e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.571614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>341989.2896867176</v>
+        <v>391051.2832383065</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>277.1245646813646</v>
+        <v>316.7654685621142</v>
       </c>
       <c r="AB8" t="n">
-        <v>379.1740552699791</v>
+        <v>433.4124887928733</v>
       </c>
       <c r="AC8" t="n">
-        <v>342.9862156091405</v>
+        <v>392.0482091607292</v>
       </c>
       <c r="AD8" t="n">
-        <v>277124.5646813646</v>
+        <v>316765.4685621142</v>
       </c>
       <c r="AE8" t="n">
-        <v>379174.0552699791</v>
+        <v>433412.4887928733</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817416393551383e-06</v>
+        <v>4.950089462659757e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>342986.2156091405</v>
+        <v>392048.2091607293</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.0532731658395</v>
+        <v>1046.031186490592</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.060219374225</v>
+        <v>1431.22601699544</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.170963349793</v>
+        <v>1294.631814671726</v>
       </c>
       <c r="AD2" t="n">
-        <v>964053.2731658395</v>
+        <v>1046031.186490592</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319060.219374225</v>
+        <v>1431226.01699544</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.392966856162502e-06</v>
+        <v>2.381818088474545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78298611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193170.963349793</v>
+        <v>1294631.814671726</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.6504841564766</v>
+        <v>567.0272430818267</v>
       </c>
       <c r="AB3" t="n">
-        <v>691.8533001478529</v>
+        <v>775.8316894610172</v>
       </c>
       <c r="AC3" t="n">
-        <v>625.8237922039465</v>
+        <v>701.7874019054721</v>
       </c>
       <c r="AD3" t="n">
-        <v>505650.4841564766</v>
+        <v>567027.2430818267</v>
       </c>
       <c r="AE3" t="n">
-        <v>691853.3001478529</v>
+        <v>775831.6894610171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.080198000813285e-06</v>
+        <v>3.556906759142346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.900173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>625823.7922039465</v>
+        <v>701787.401905472</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.85911545467</v>
+        <v>471.0633084621761</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.4697646419751</v>
+        <v>644.5296004844105</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.6431765779229</v>
+        <v>583.0166000171535</v>
       </c>
       <c r="AD4" t="n">
-        <v>419859.11545467</v>
+        <v>471063.3084621761</v>
       </c>
       <c r="AE4" t="n">
-        <v>574469.7646419751</v>
+        <v>644529.6004844105</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.335750813923552e-06</v>
+        <v>3.993873590143227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.817274305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>519643.1765779229</v>
+        <v>583016.6000171534</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.0356049821132</v>
+        <v>426.9819807257549</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.1909454254545</v>
+        <v>584.2155831445115</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.7811429146962</v>
+        <v>528.4588678409194</v>
       </c>
       <c r="AD5" t="n">
-        <v>386035.6049821132</v>
+        <v>426981.9807257549</v>
       </c>
       <c r="AE5" t="n">
-        <v>528190.9454254545</v>
+        <v>584215.5831445114</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470027542683682e-06</v>
+        <v>4.223471832202734e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.337673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>477781.1429146962</v>
+        <v>528458.8678409194</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.0614907064738</v>
+        <v>406.0078664501155</v>
       </c>
       <c r="AB6" t="n">
-        <v>499.493236960908</v>
+        <v>555.5178746799651</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.8223034685193</v>
+        <v>502.5000283947425</v>
       </c>
       <c r="AD6" t="n">
-        <v>365061.4907064738</v>
+        <v>406007.8664501155</v>
       </c>
       <c r="AE6" t="n">
-        <v>499493.236960908</v>
+        <v>555517.8746799651</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.551447636871802e-06</v>
+        <v>4.362691119614081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.070746527777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>451822.3034685193</v>
+        <v>502500.0283947425</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.7228661483634</v>
+        <v>378.7544932380257</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.0873247455079</v>
+        <v>518.2286071172142</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.9863590154294</v>
+        <v>468.7695961923648</v>
       </c>
       <c r="AD7" t="n">
-        <v>337722.8661483634</v>
+        <v>378754.4932380257</v>
       </c>
       <c r="AE7" t="n">
-        <v>462087.3247455079</v>
+        <v>518228.6071172142</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.61645085892176e-06</v>
+        <v>4.473839385204726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>417986.3590154294</v>
+        <v>468769.5961923648</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>320.2670271137859</v>
+        <v>361.2986542034482</v>
       </c>
       <c r="AB8" t="n">
-        <v>438.2034756811314</v>
+        <v>494.3447580528378</v>
       </c>
       <c r="AC8" t="n">
-        <v>396.3819509845642</v>
+        <v>447.1651881614998</v>
       </c>
       <c r="AD8" t="n">
-        <v>320267.0271137859</v>
+        <v>361298.6542034482</v>
       </c>
       <c r="AE8" t="n">
-        <v>438203.4756811314</v>
+        <v>494344.7580528379</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.677658272384857e-06</v>
+        <v>4.578497241125842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.690972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>396381.9509845643</v>
+        <v>447165.1881614998</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>312.4690540953134</v>
+        <v>353.5006811849756</v>
       </c>
       <c r="AB9" t="n">
-        <v>427.5339449749677</v>
+        <v>483.675227346674</v>
       </c>
       <c r="AC9" t="n">
-        <v>386.7307053142164</v>
+        <v>437.5139424911519</v>
       </c>
       <c r="AD9" t="n">
-        <v>312469.0540953134</v>
+        <v>353500.6811849756</v>
       </c>
       <c r="AE9" t="n">
-        <v>427533.9449749676</v>
+        <v>483675.227346674</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.689425279004119e-06</v>
+        <v>4.598617511101374e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>386730.7053142164</v>
+        <v>437513.9424911519</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>307.7661338672656</v>
+        <v>348.7977609569278</v>
       </c>
       <c r="AB10" t="n">
-        <v>421.0992020407552</v>
+        <v>477.2404844124617</v>
       </c>
       <c r="AC10" t="n">
-        <v>380.9100852144268</v>
+        <v>431.6933223913623</v>
       </c>
       <c r="AD10" t="n">
-        <v>307766.1338672656</v>
+        <v>348797.7609569278</v>
       </c>
       <c r="AE10" t="n">
-        <v>421099.2020407552</v>
+        <v>477240.4844124617</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.699009695685937e-06</v>
+        <v>4.61500579551693e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>380910.0852144268</v>
+        <v>431693.3223913623</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>307.3711290390729</v>
+        <v>348.4027561287351</v>
       </c>
       <c r="AB11" t="n">
-        <v>420.5587390084387</v>
+        <v>476.7000213801452</v>
       </c>
       <c r="AC11" t="n">
-        <v>380.4212032153699</v>
+        <v>431.2044403923055</v>
       </c>
       <c r="AD11" t="n">
-        <v>307371.1290390728</v>
+        <v>348402.7561287351</v>
       </c>
       <c r="AE11" t="n">
-        <v>420558.7390084388</v>
+        <v>476700.0213801452</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.704228932492868e-06</v>
+        <v>4.623930108812528e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.615017361111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>380421.20321537</v>
+        <v>431204.4403923055</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.8323562259687</v>
+        <v>239.5219985597045</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.0512016527147</v>
+        <v>327.7245653940319</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.087016793319</v>
+        <v>296.4469928372394</v>
       </c>
       <c r="AD2" t="n">
-        <v>198832.3562259687</v>
+        <v>239521.9985597045</v>
       </c>
       <c r="AE2" t="n">
-        <v>272051.2016527147</v>
+        <v>327724.5653940319</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.780479055792805e-06</v>
+        <v>5.959847278695255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.516059027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>246087.016793319</v>
+        <v>296446.9928372394</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.7308951089036</v>
+        <v>468.5368636382801</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.030816141988</v>
+        <v>641.0728072174766</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.9598049172329</v>
+        <v>579.8897182479758</v>
       </c>
       <c r="AD2" t="n">
-        <v>421730.8951089036</v>
+        <v>468536.8636382801</v>
       </c>
       <c r="AE2" t="n">
-        <v>577030.816141988</v>
+        <v>641072.8072174765</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203005003330575e-06</v>
+        <v>4.058888093133207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>521959.8049172328</v>
+        <v>579889.7182479758</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.1645299579524</v>
+        <v>329.5922545122494</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.7523992778459</v>
+        <v>450.9626632077069</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.6005913467836</v>
+        <v>407.9234195612354</v>
       </c>
       <c r="AD3" t="n">
-        <v>292164.5299579524</v>
+        <v>329592.2545122494</v>
       </c>
       <c r="AE3" t="n">
-        <v>399752.3992778459</v>
+        <v>450962.6632077069</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.724832603388907e-06</v>
+        <v>5.020320241195929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.322482638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>361600.5913467836</v>
+        <v>407923.4195612355</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.3942125396337</v>
+        <v>285.9071884399544</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.8639199758212</v>
+        <v>391.1908285584961</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.4277844554377</v>
+        <v>353.8561249206487</v>
       </c>
       <c r="AD4" t="n">
-        <v>248394.2125396337</v>
+        <v>285907.1884399544</v>
       </c>
       <c r="AE4" t="n">
-        <v>339863.9199758212</v>
+        <v>391190.8285584961</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.904592962311464e-06</v>
+        <v>5.351516574996826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.808159722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>307427.7844554377</v>
+        <v>353856.1249206486</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.6259629733669</v>
+        <v>283.1389388736876</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.0762787927054</v>
+        <v>387.4031873753782</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.0016304308493</v>
+        <v>350.4299708960598</v>
       </c>
       <c r="AD5" t="n">
-        <v>245625.9629733669</v>
+        <v>283138.9388736876</v>
       </c>
       <c r="AE5" t="n">
-        <v>336076.2787927053</v>
+        <v>387403.1873753782</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.920687785145227e-06</v>
+        <v>5.381170200232487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.764756944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>304001.6304308493</v>
+        <v>350429.9708960598</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.2965960490511</v>
+        <v>622.5791814944655</v>
       </c>
       <c r="AB2" t="n">
-        <v>772.0954977231289</v>
+        <v>851.8403023757448</v>
       </c>
       <c r="AC2" t="n">
-        <v>698.4077870632697</v>
+        <v>770.5418594823764</v>
       </c>
       <c r="AD2" t="n">
-        <v>564296.5960490511</v>
+        <v>622579.1814944654</v>
       </c>
       <c r="AE2" t="n">
-        <v>772095.4977231289</v>
+        <v>851840.3023757448</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.884357503288756e-06</v>
+        <v>3.366267162454785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>698407.7870632696</v>
+        <v>770541.8594823764</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.7988124804752</v>
+        <v>406.2822928304154</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.5561202053465</v>
+        <v>555.8933569603289</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.8335711892776</v>
+        <v>502.8396751732611</v>
       </c>
       <c r="AD3" t="n">
-        <v>357798.8124804752</v>
+        <v>406282.2928304154</v>
       </c>
       <c r="AE3" t="n">
-        <v>489556.1202053466</v>
+        <v>555893.3569603289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474508448810652e-06</v>
+        <v>4.420528758428369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.823784722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>442833.5711892776</v>
+        <v>502839.6751732611</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.9559014558141</v>
+        <v>352.7257070734029</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.5683151286808</v>
+        <v>482.6148735777755</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.5709180357155</v>
+        <v>436.5547873977411</v>
       </c>
       <c r="AD4" t="n">
-        <v>313955.9014558141</v>
+        <v>352725.7070734029</v>
       </c>
       <c r="AE4" t="n">
-        <v>429568.3151286807</v>
+        <v>482614.8735777756</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.686016937725746e-06</v>
+        <v>4.798373238349336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.129340277777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>388570.9180357155</v>
+        <v>436554.7873977411</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>279.4688199831348</v>
+        <v>318.3238769467443</v>
       </c>
       <c r="AB5" t="n">
-        <v>382.3815687951059</v>
+        <v>435.5447718968499</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.8876085452026</v>
+        <v>393.9769901579404</v>
       </c>
       <c r="AD5" t="n">
-        <v>279468.8199831348</v>
+        <v>318323.8769467443</v>
       </c>
       <c r="AE5" t="n">
-        <v>382381.5687951058</v>
+        <v>435544.7718968499</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793381142136976e-06</v>
+        <v>4.990171554274965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.816840277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>345887.6085452026</v>
+        <v>393976.9901579404</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.7444773373585</v>
+        <v>304.599534300968</v>
       </c>
       <c r="AB6" t="n">
-        <v>363.6033177118895</v>
+        <v>416.7665208136336</v>
       </c>
       <c r="AC6" t="n">
-        <v>328.9015273899275</v>
+        <v>376.9909090026653</v>
       </c>
       <c r="AD6" t="n">
-        <v>265744.4773373585</v>
+        <v>304599.534300968</v>
       </c>
       <c r="AE6" t="n">
-        <v>363603.3177118895</v>
+        <v>416766.5208136336</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.849327250527458e-06</v>
+        <v>5.090115194063765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.662760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>328901.5273899275</v>
+        <v>376990.9090026653</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>266.9432026811171</v>
+        <v>305.7982596447266</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.2434666112499</v>
+        <v>418.406669712994</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.3851427802964</v>
+        <v>378.4745243930342</v>
       </c>
       <c r="AD7" t="n">
-        <v>266943.2026811171</v>
+        <v>305798.2596447266</v>
       </c>
       <c r="AE7" t="n">
-        <v>365243.4666112498</v>
+        <v>418406.669712994</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.848924760539037e-06</v>
+        <v>5.089396175072479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>330385.1427802964</v>
+        <v>378474.5243930342</v>
       </c>
     </row>
   </sheetData>
